--- a/Contact_Prof.xlsx
+++ b/Contact_Prof.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\academic\飞跃\陶瓷\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404018A6-9768-4148-A344-7228E81ED9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA4C1EB-7B57-4345-9164-6E3EDF6E9E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="119">
   <si>
     <t>教授</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>www.mos.t.u-tokyo.ac.jp/welcome-j.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RF, CAD, Analog Technique</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,22 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>www.kuroda.t.u-tokyo.ac.jp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>www.kuroda.t.u-tokyo.ac.jp/en/about/kuroda.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tadahiro Kuroda/Prof. Kuroda</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D integrated circuit, AI Chip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nak@elec.keio.ac.jp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -403,10 +383,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kuroda@dlab.t.u-tokyo.ac.jp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>urakabe@ee.e.titech.ac.jp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -486,6 +462,25 @@
   </si>
   <si>
     <t>sites.google.com/view/mitsuhirokamezaki/homeホーム</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://klab.t.u-tokyo.ac.jp/contact/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mos.t.u-tokyo.ac.jp/ikeda2/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kosuge Atsutake/Prof. Kosuge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kosuge@dlab.t.u-tokyo.ac.jp</t>
+  </si>
+  <si>
+    <t>AI processor/3D interagtion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -823,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -869,86 +864,86 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
         <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -959,210 +954,206 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>74</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="2"/>
+        <v>13</v>
+      </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" t="s">
         <v>79</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" t="s">
-        <v>84</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -1180,158 +1171,160 @@
         <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="2"/>
+        <v>64</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F20" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F21" t="s">
-        <v>106</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F22" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F24" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" t="s">
         <v>94</v>
       </c>
-      <c r="B25" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G31" s="2"/>
       <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G32" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H19">
@@ -1340,50 +1333,48 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C18" r:id="rId1" xr:uid="{AF39C0FE-F218-4D6C-AB67-B6E242EA2018}"/>
-    <hyperlink ref="C10" r:id="rId2" xr:uid="{2DB0837D-4FBC-4129-B818-BED3F697C3D8}"/>
-    <hyperlink ref="D10" r:id="rId3" xr:uid="{6CF30CE5-F7D0-47B1-B49A-16B518DB1243}"/>
-    <hyperlink ref="E2" r:id="rId4" xr:uid="{E02996C0-5A07-4F3E-89A4-DD24172314A4}"/>
-    <hyperlink ref="D2" r:id="rId5" xr:uid="{B801122B-1631-47A8-A304-B7EBF077354C}"/>
-    <hyperlink ref="E12" r:id="rId6" xr:uid="{832FE02A-FD23-482D-9400-E569DA9760C6}"/>
-    <hyperlink ref="E5" r:id="rId7" xr:uid="{38C14E5F-CEFF-4E00-8C9A-8CB7DA406DB3}"/>
-    <hyperlink ref="D5" r:id="rId8" xr:uid="{18A0F1BA-002E-4D4F-9C2A-E4C01A796D35}"/>
-    <hyperlink ref="C5" r:id="rId9" xr:uid="{1C586A35-12B4-4610-AB37-D1DD5E7CB90C}"/>
-    <hyperlink ref="D7" r:id="rId10" xr:uid="{97E30437-C296-4B42-808A-318CB57BE559}"/>
-    <hyperlink ref="C7" r:id="rId11" xr:uid="{855F9A7A-B722-4CF5-B848-9DE46B495C58}"/>
-    <hyperlink ref="E4" r:id="rId12" xr:uid="{77683882-2B98-4A5A-BFC3-2D9039380D3C}"/>
-    <hyperlink ref="E11" r:id="rId13" xr:uid="{D704E08E-B7E0-4468-8C44-8D95D892079E}"/>
-    <hyperlink ref="E13" r:id="rId14" xr:uid="{9213BEFA-2811-4A92-9307-C5958DB4645F}"/>
-    <hyperlink ref="E9" r:id="rId15" xr:uid="{80C24D9B-AAF0-4609-8238-C5C0C7379E55}"/>
-    <hyperlink ref="E14" r:id="rId16" xr:uid="{09EE890B-721A-44B5-9913-D8EA51F46933}"/>
-    <hyperlink ref="E8" r:id="rId17" xr:uid="{A846CCCF-CC96-49CD-8DA8-C7F49F797698}"/>
-    <hyperlink ref="D18" r:id="rId18" xr:uid="{5321DD28-DE37-4A59-AF63-6975CC7DB9F2}"/>
-    <hyperlink ref="C23" r:id="rId19" xr:uid="{38997E63-E0C7-4D6A-9F02-B49705982AF7}"/>
-    <hyperlink ref="D23" r:id="rId20" xr:uid="{ECFE6187-E25E-439C-8FD4-FE03B7AF7669}"/>
-    <hyperlink ref="E19" r:id="rId21" xr:uid="{C01B6FBF-A7E3-4BEA-B11C-777201BFF92F}"/>
-    <hyperlink ref="C22" r:id="rId22" xr:uid="{540BA69B-9CEC-4168-A88B-5F4AAC7337D7}"/>
-    <hyperlink ref="D22" r:id="rId23" xr:uid="{38CC1DC9-8E99-46BD-92E6-2CA044A81B7F}"/>
-    <hyperlink ref="E22" r:id="rId24" xr:uid="{C16D2079-3288-4F23-842C-D720C0EF5548}"/>
-    <hyperlink ref="E20" r:id="rId25" xr:uid="{AE2E3399-3B33-4466-90F9-9B9A9B50BA42}"/>
-    <hyperlink ref="C15" r:id="rId26" xr:uid="{7A595880-182E-4419-AED2-437DBD490710}"/>
-    <hyperlink ref="E15" r:id="rId27" xr:uid="{FAEC1551-0D74-448B-9B35-3B7DA794F984}"/>
-    <hyperlink ref="E16" r:id="rId28" xr:uid="{080D0C1D-13E2-4017-9A3C-9DD02DFDF4EE}"/>
-    <hyperlink ref="E3" r:id="rId29" xr:uid="{A5E3332C-FCF1-40C3-BF50-371C48A72FF9}"/>
-    <hyperlink ref="E18" r:id="rId30" xr:uid="{62995FDA-5F5F-4E3A-A565-B4E7927D83EF}"/>
-    <hyperlink ref="E25" r:id="rId31" xr:uid="{30288671-1704-4AC4-98F7-046C3CF9751B}"/>
-    <hyperlink ref="E10" r:id="rId32" xr:uid="{59C6A390-FE80-447D-B6D6-C1C4F98FDBA9}"/>
-    <hyperlink ref="E7" r:id="rId33" xr:uid="{4D4794AF-92B2-4CF0-A54B-351F23E292E3}"/>
-    <hyperlink ref="E23" r:id="rId34" xr:uid="{6C156536-89F8-47ED-A9E9-C762B9398931}"/>
-    <hyperlink ref="E24" r:id="rId35" xr:uid="{D7297EA3-28DB-4FD2-B41B-FD07C9F5CE84}"/>
-    <hyperlink ref="D24" r:id="rId36" xr:uid="{BFE96936-ACA6-4020-9BFA-613F5261A33C}"/>
-    <hyperlink ref="C24" r:id="rId37" xr:uid="{5F991FEE-4E5C-49C8-88C6-6E6A5AA2F294}"/>
-    <hyperlink ref="D21" r:id="rId38" xr:uid="{276EF0A7-D27C-474F-B3B9-BA113DDBABF6}"/>
-    <hyperlink ref="E21" r:id="rId39" xr:uid="{181F5230-2E78-4EF9-896E-0CB6F6C6148B}"/>
-    <hyperlink ref="D4" r:id="rId40" xr:uid="{8DCDF0D2-26BC-4A05-BB0C-A399FE9E7BD8}"/>
-    <hyperlink ref="C4" r:id="rId41" xr:uid="{EE75E4AF-7DBC-48C9-BC4A-B5D18E71379C}"/>
-    <hyperlink ref="D11" r:id="rId42" xr:uid="{54D7689D-0C4A-4824-AB50-987B22E00D87}"/>
-    <hyperlink ref="D12" r:id="rId43" xr:uid="{B2621BA9-7A88-4862-BD3D-3E929A2CF65C}"/>
-    <hyperlink ref="D25" r:id="rId44" xr:uid="{0EF31CBB-9574-481B-AE80-067C0094A626}"/>
-    <hyperlink ref="D9" r:id="rId45" display="www.icdesign.iis.u-tokyo.ac.jp" xr:uid="{4CDB23A5-87FA-48A0-B3A0-CCFBB7012BD2}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{2DB0837D-4FBC-4129-B818-BED3F697C3D8}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{E02996C0-5A07-4F3E-89A4-DD24172314A4}"/>
+    <hyperlink ref="D2" r:id="rId4" xr:uid="{B801122B-1631-47A8-A304-B7EBF077354C}"/>
+    <hyperlink ref="E12" r:id="rId5" xr:uid="{832FE02A-FD23-482D-9400-E569DA9760C6}"/>
+    <hyperlink ref="E5" r:id="rId6" xr:uid="{38C14E5F-CEFF-4E00-8C9A-8CB7DA406DB3}"/>
+    <hyperlink ref="D5" r:id="rId7" xr:uid="{18A0F1BA-002E-4D4F-9C2A-E4C01A796D35}"/>
+    <hyperlink ref="C5" r:id="rId8" xr:uid="{1C586A35-12B4-4610-AB37-D1DD5E7CB90C}"/>
+    <hyperlink ref="E4" r:id="rId9" xr:uid="{77683882-2B98-4A5A-BFC3-2D9039380D3C}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{D704E08E-B7E0-4468-8C44-8D95D892079E}"/>
+    <hyperlink ref="E13" r:id="rId11" xr:uid="{9213BEFA-2811-4A92-9307-C5958DB4645F}"/>
+    <hyperlink ref="E10" r:id="rId12" xr:uid="{80C24D9B-AAF0-4609-8238-C5C0C7379E55}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{09EE890B-721A-44B5-9913-D8EA51F46933}"/>
+    <hyperlink ref="E8" r:id="rId14" xr:uid="{A846CCCF-CC96-49CD-8DA8-C7F49F797698}"/>
+    <hyperlink ref="D18" r:id="rId15" xr:uid="{5321DD28-DE37-4A59-AF63-6975CC7DB9F2}"/>
+    <hyperlink ref="C23" r:id="rId16" xr:uid="{38997E63-E0C7-4D6A-9F02-B49705982AF7}"/>
+    <hyperlink ref="D23" r:id="rId17" xr:uid="{ECFE6187-E25E-439C-8FD4-FE03B7AF7669}"/>
+    <hyperlink ref="E19" r:id="rId18" xr:uid="{C01B6FBF-A7E3-4BEA-B11C-777201BFF92F}"/>
+    <hyperlink ref="C22" r:id="rId19" xr:uid="{540BA69B-9CEC-4168-A88B-5F4AAC7337D7}"/>
+    <hyperlink ref="D22" r:id="rId20" xr:uid="{38CC1DC9-8E99-46BD-92E6-2CA044A81B7F}"/>
+    <hyperlink ref="E22" r:id="rId21" xr:uid="{C16D2079-3288-4F23-842C-D720C0EF5548}"/>
+    <hyperlink ref="E20" r:id="rId22" xr:uid="{AE2E3399-3B33-4466-90F9-9B9A9B50BA42}"/>
+    <hyperlink ref="C15" r:id="rId23" xr:uid="{7A595880-182E-4419-AED2-437DBD490710}"/>
+    <hyperlink ref="E15" r:id="rId24" xr:uid="{FAEC1551-0D74-448B-9B35-3B7DA794F984}"/>
+    <hyperlink ref="E16" r:id="rId25" xr:uid="{080D0C1D-13E2-4017-9A3C-9DD02DFDF4EE}"/>
+    <hyperlink ref="E3" r:id="rId26" xr:uid="{A5E3332C-FCF1-40C3-BF50-371C48A72FF9}"/>
+    <hyperlink ref="E18" r:id="rId27" xr:uid="{62995FDA-5F5F-4E3A-A565-B4E7927D83EF}"/>
+    <hyperlink ref="E25" r:id="rId28" xr:uid="{30288671-1704-4AC4-98F7-046C3CF9751B}"/>
+    <hyperlink ref="E9" r:id="rId29" xr:uid="{59C6A390-FE80-447D-B6D6-C1C4F98FDBA9}"/>
+    <hyperlink ref="E23" r:id="rId30" xr:uid="{6C156536-89F8-47ED-A9E9-C762B9398931}"/>
+    <hyperlink ref="E24" r:id="rId31" xr:uid="{D7297EA3-28DB-4FD2-B41B-FD07C9F5CE84}"/>
+    <hyperlink ref="D24" r:id="rId32" xr:uid="{BFE96936-ACA6-4020-9BFA-613F5261A33C}"/>
+    <hyperlink ref="C24" r:id="rId33" xr:uid="{5F991FEE-4E5C-49C8-88C6-6E6A5AA2F294}"/>
+    <hyperlink ref="D21" r:id="rId34" xr:uid="{276EF0A7-D27C-474F-B3B9-BA113DDBABF6}"/>
+    <hyperlink ref="E21" r:id="rId35" xr:uid="{181F5230-2E78-4EF9-896E-0CB6F6C6148B}"/>
+    <hyperlink ref="D4" r:id="rId36" xr:uid="{8DCDF0D2-26BC-4A05-BB0C-A399FE9E7BD8}"/>
+    <hyperlink ref="C4" r:id="rId37" xr:uid="{EE75E4AF-7DBC-48C9-BC4A-B5D18E71379C}"/>
+    <hyperlink ref="D11" r:id="rId38" xr:uid="{54D7689D-0C4A-4824-AB50-987B22E00D87}"/>
+    <hyperlink ref="D12" r:id="rId39" xr:uid="{B2621BA9-7A88-4862-BD3D-3E929A2CF65C}"/>
+    <hyperlink ref="D25" r:id="rId40" xr:uid="{0EF31CBB-9574-481B-AE80-067C0094A626}"/>
+    <hyperlink ref="D10" r:id="rId41" display="www.icdesign.iis.u-tokyo.ac.jp" xr:uid="{4CDB23A5-87FA-48A0-B3A0-CCFBB7012BD2}"/>
+    <hyperlink ref="D7" r:id="rId42" xr:uid="{C35F0346-69AB-4A7B-B86E-7ADB7A6617C9}"/>
+    <hyperlink ref="D9" r:id="rId43" xr:uid="{DACFE1D2-B3FB-4418-B31B-6A98F6F13C31}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Contact_Prof.xlsx
+++ b/Contact_Prof.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\飞跃\陶瓷\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CBC19A-293C-444E-9E67-5842FD6D9AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FD8AC1-D47D-4B2E-B03A-B3DEA3D591D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="109">
   <si>
     <t>教授</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,14 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第一次套磁时间点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二次套磁时间点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Kenichi OKADA/Prof. Okada</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -353,10 +345,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>答复结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cryptographic hardware</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -365,10 +353,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024/07/10, 11:01被告知需要修士考试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://shirane-lab.ee.e.titech.ac.jp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -433,10 +417,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无回信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>www.neumis.iis.u-tokyo.ac.jp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -473,19 +453,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024/07/10, 00:08收到一封积极的回应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024/07/25收到回信不接受ime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>YOSHIOKA Kentaro/Prof. Yoshioka</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024\07\29约面试，2024\08\07拿到acceptance letter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,22 +493,13 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
-    </border>
-    <border diagonalDown="1">
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal style="thin">
-        <color auto="1"/>
-      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="2">
@@ -551,8 +510,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -834,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -848,12 +807,10 @@
     <col min="4" max="4" width="48.88671875" customWidth="1"/>
     <col min="5" max="5" width="35.77734375" customWidth="1"/>
     <col min="6" max="6" width="87.5546875" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
-    <col min="9" max="9" width="39.44140625" customWidth="1"/>
+    <col min="7" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -872,466 +829,425 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2">
-        <v>45477</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="2">
-        <v>45502</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G3" s="2"/>
       <c r="H3" s="3"/>
-      <c r="I3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>38</v>
       </c>
-      <c r="F7" t="s">
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="2">
-        <v>45482</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="F8" t="s">
         <v>40</v>
       </c>
-      <c r="B8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="2">
-        <v>45484</v>
-      </c>
-      <c r="H8" s="2">
-        <v>45491</v>
-      </c>
-      <c r="I8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="2">
-        <v>45498</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G9" s="2"/>
       <c r="H9" s="4"/>
-      <c r="I9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s">
         <v>79</v>
-      </c>
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" t="s">
-        <v>81</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
         <v>19</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="2">
-        <v>45495</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="F17" t="s">
         <v>50</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" t="s">
-        <v>52</v>
       </c>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" t="s">
         <v>45</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" t="s">
         <v>98</v>
-      </c>
-      <c r="B19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" t="s">
         <v>88</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" t="s">
         <v>65</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" t="s">
         <v>93</v>
-      </c>
-      <c r="B22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
